--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H2">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I2">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J2">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>0.05283087046366667</v>
+        <v>0.1744373661228889</v>
       </c>
       <c r="R2">
-        <v>0.475477834173</v>
+        <v>1.569936295106</v>
       </c>
       <c r="S2">
-        <v>0.0002212270256554342</v>
+        <v>0.0005838409898058809</v>
       </c>
       <c r="T2">
-        <v>0.0002212270256554342</v>
+        <v>0.0005838409898058809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H3">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I3">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J3">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>0.227039958025</v>
+        <v>0.7121900271583333</v>
       </c>
       <c r="R3">
-        <v>2.043359622225</v>
+        <v>6.409710244425001</v>
       </c>
       <c r="S3">
-        <v>0.0009507201789027539</v>
+        <v>0.002383696450066029</v>
       </c>
       <c r="T3">
-        <v>0.0009507201789027538</v>
+        <v>0.002383696450066029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +649,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.485621</v>
+        <v>1.523319666666667</v>
       </c>
       <c r="H4">
-        <v>1.456863</v>
+        <v>4.569959</v>
       </c>
       <c r="I4">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479001</v>
       </c>
       <c r="J4">
-        <v>0.1357088875882878</v>
+        <v>0.3270148067479002</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>0.3955085197453334</v>
+        <v>96.81737518326867</v>
       </c>
       <c r="R4">
-        <v>3.559576677708</v>
+        <v>871.3563766494179</v>
       </c>
       <c r="S4">
-        <v>0.001656175124065352</v>
+        <v>0.3240472693080282</v>
       </c>
       <c r="T4">
-        <v>0.001656175124065351</v>
+        <v>0.3240472693080282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +711,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.485621</v>
+        <v>2.580934333333333</v>
       </c>
       <c r="H5">
-        <v>1.456863</v>
+        <v>7.742803</v>
       </c>
       <c r="I5">
-        <v>0.1357088875882878</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J5">
-        <v>0.1357088875882878</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>31.73304199949033</v>
+        <v>0.2955462317557778</v>
       </c>
       <c r="R5">
-        <v>285.597377995413</v>
+        <v>2.659916085802</v>
       </c>
       <c r="S5">
-        <v>0.1328807652596642</v>
+        <v>0.0009891917558542524</v>
       </c>
       <c r="T5">
-        <v>0.1328807652596642</v>
+        <v>0.0009891917558542526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>7.742803</v>
       </c>
       <c r="I6">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J6">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>0.2807807064347778</v>
+        <v>1.206651324191667</v>
       </c>
       <c r="R6">
-        <v>2.527026357913</v>
+        <v>10.859861917725</v>
       </c>
       <c r="S6">
-        <v>0.00117575727980323</v>
+        <v>0.004038655932068669</v>
       </c>
       <c r="T6">
-        <v>0.00117575727980323</v>
+        <v>0.00403865593206867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>7.742803</v>
       </c>
       <c r="I7">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983205</v>
       </c>
       <c r="J7">
-        <v>0.7212532557592974</v>
+        <v>0.5540555673983206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +862,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>1.206651324191667</v>
+        <v>164.0360149885674</v>
       </c>
       <c r="R7">
-        <v>10.859861917725</v>
+        <v>1476.324134897106</v>
       </c>
       <c r="S7">
-        <v>0.005052801157946066</v>
+        <v>0.5490277197103977</v>
       </c>
       <c r="T7">
-        <v>0.005052801157946067</v>
+        <v>0.5490277197103977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.580934333333333</v>
+        <v>0.554005</v>
       </c>
       <c r="H8">
-        <v>7.742803</v>
+        <v>1.662015</v>
       </c>
       <c r="I8">
-        <v>0.7212532557592974</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="J8">
-        <v>0.7212532557592974</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +924,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>2.102012717194222</v>
+        <v>0.06343985122333333</v>
       </c>
       <c r="R8">
-        <v>18.918114454748</v>
+        <v>0.5709586610099999</v>
       </c>
       <c r="S8">
-        <v>0.008802088953551964</v>
+        <v>0.0002123328639649111</v>
       </c>
       <c r="T8">
-        <v>0.008802088953551966</v>
+        <v>0.0002123328639649111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.580934333333333</v>
+        <v>0.554005</v>
       </c>
       <c r="H9">
-        <v>7.742803</v>
+        <v>1.662015</v>
       </c>
       <c r="I9">
-        <v>0.7212532557592974</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="J9">
-        <v>0.7212532557592974</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>168.6518861367059</v>
+        <v>0.259011187625</v>
       </c>
       <c r="R9">
-        <v>1517.866975230353</v>
+        <v>2.331100688625</v>
       </c>
       <c r="S9">
-        <v>0.7062226083679962</v>
+        <v>0.000866909146330742</v>
       </c>
       <c r="T9">
-        <v>0.7062226083679962</v>
+        <v>0.000866909146330742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,241 +1021,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5118470000000001</v>
+        <v>0.554005</v>
       </c>
       <c r="H10">
-        <v>1.535541</v>
+        <v>1.662015</v>
       </c>
       <c r="I10">
-        <v>0.1430378566524148</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="J10">
-        <v>0.1430378566524148</v>
+        <v>0.1189296258537793</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.05568400574566668</v>
+        <v>35.21080382017</v>
       </c>
       <c r="R10">
-        <v>0.5011560517110001</v>
+        <v>316.89723438153</v>
       </c>
       <c r="S10">
-        <v>0.0002331744084392088</v>
+        <v>0.1178503838434836</v>
       </c>
       <c r="T10">
-        <v>0.0002331744084392089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.5118470000000001</v>
-      </c>
-      <c r="H11">
-        <v>1.535541</v>
-      </c>
-      <c r="I11">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="J11">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.467525</v>
-      </c>
-      <c r="N11">
-        <v>1.402575</v>
-      </c>
-      <c r="O11">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="P11">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="Q11">
-        <v>0.239301268675</v>
-      </c>
-      <c r="R11">
-        <v>2.153711418075</v>
-      </c>
-      <c r="S11">
-        <v>0.001002063896352995</v>
-      </c>
-      <c r="T11">
-        <v>0.001002063896352995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.5118470000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.535541</v>
-      </c>
-      <c r="I12">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="J12">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.8144386666666666</v>
-      </c>
-      <c r="N12">
-        <v>2.443316</v>
-      </c>
-      <c r="O12">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="P12">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="Q12">
-        <v>0.4168679882173333</v>
-      </c>
-      <c r="R12">
-        <v>3.751811893956</v>
-      </c>
-      <c r="S12">
-        <v>0.001745616990878644</v>
-      </c>
-      <c r="T12">
-        <v>0.001745616990878644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.5118470000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.535541</v>
-      </c>
-      <c r="I13">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="J13">
-        <v>0.1430378566524148</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="N13">
-        <v>196.035851</v>
-      </c>
-      <c r="O13">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="P13">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="Q13">
-        <v>33.44678740893233</v>
-      </c>
-      <c r="R13">
-        <v>301.021086680391</v>
-      </c>
-      <c r="S13">
-        <v>0.140057001356744</v>
-      </c>
-      <c r="T13">
-        <v>0.140057001356744</v>
+        <v>0.1178503838434836</v>
       </c>
     </row>
   </sheetData>
